--- a/xlsx/布雷顿森林体系_intext.xlsx
+++ b/xlsx/布雷顿森林体系_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>布雷顿森林体系</t>
   </si>
@@ -29,7 +29,7 @@
     <t>金本位</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_布雷顿森林体系</t>
+    <t>政策_政策_货币政策_布雷顿森林体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%90%A7%E6%9D%A1</t>
@@ -41,31 +41,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E6%81%90%E6%85%8C</t>
   </si>
   <si>
-    <t>經濟大恐慌</t>
+    <t>经济大恐慌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>固定匯率</t>
+    <t>固定汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>羅斯福</t>
+    <t>罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%A3%AE%E5%8D%8F%E5%AE%9A</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E8%8A%AC%E5%9B%B0%E5%A2%83</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%8B%95%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>浮動匯率</t>
+    <t>浮动汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%86%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>法國法郎</t>
+    <t>法国法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E9%87%8C%E6%8B%89</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9B%BE</t>
   </si>
   <si>
-    <t>荷蘭盾</t>
+    <t>荷兰盾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>比利時法郎</t>
+    <t>比利时法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%BE%B7%E6%8B%89%E5%85%8B%E9%A6%AC</t>
   </si>
   <si>
-    <t>希臘德拉克馬</t>
+    <t>希腊德拉克马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%B3%95%E9%83%8E</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>丹麥克朗</t>
+    <t>丹麦克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>芬蘭馬克</t>
+    <t>芬兰马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%9C%93</t>
   </si>
   <si>
-    <t>日圓</t>
+    <t>日圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%B3%BB%E6%B1%87%E7%8E%87%E5%88%B6</t>
@@ -227,15 +227,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>国际货币基金组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E8%B4%A7%E5%B8%81</t>
   </si>
   <si>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1608,7 +1602,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1634,10 +1628,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1692,10 +1686,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1721,10 +1715,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -1750,10 +1744,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
